--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2109.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2109.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.693487750168992</v>
+        <v>2.636641502380371</v>
       </c>
       <c r="B1">
-        <v>2.157059248023746</v>
+        <v>3.650352954864502</v>
       </c>
       <c r="C1">
-        <v>1.884913752597076</v>
+        <v>2.107701778411865</v>
       </c>
       <c r="D1">
-        <v>2.041448347501409</v>
+        <v>1.716450810432434</v>
       </c>
       <c r="E1">
-        <v>2.488462368269544</v>
+        <v>1.608127474784851</v>
       </c>
     </row>
   </sheetData>
